--- a/Report templates/Daily Log Template.xlsx
+++ b/Report templates/Daily Log Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Documents\School_Files\University\Trimester_1\ENGR101\Project_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Documents\School_Files\University\Trimester_1\ENGR101\Project_3\Report templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3387C8C-2734-42DB-832F-5B1F7D83662A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BB0104-4088-476C-8E54-CA1C1E04817F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F62B394B-45AB-44C3-BC4F-FCD23F49300C}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>Daily Log for AVC Project work</t>
-  </si>
-  <si>
     <t>E.g June 4</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Issue resolved; an if statement was missing a variable inside brackets</t>
+  </si>
+  <si>
+    <t>Daily Log for AVC Project work - adjust the height as needed, but the width is already maximum for one page length</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -180,14 +180,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,7 +515,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,30 +528,30 @@
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -562,208 +571,208 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
